--- a/VACCINATION_MANAGEMENT/src/SQL/Data/INJECTION.xlsx
+++ b/VACCINATION_MANAGEMENT/src/SQL/Data/INJECTION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Project Submission\IS201.M21_20520418_20521252_20521720_20521890\Huong dan cai dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Projects\VACCINATION\VACCINATION_MANAGEMENT\src\SQL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
